--- a/Symphony/2021/JULY/All Details/18.07.2021/MC Bank Statement June-2021.xlsx
+++ b/Symphony/2021/JULY/All Details/18.07.2021/MC Bank Statement June-2021.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="803" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="803" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="March 2021" sheetId="7" state="hidden" r:id="rId1"/>
@@ -117,6 +117,20 @@
             <family val="2"/>
           </rPr>
           <t>Murad=1110+ Sohag M.M 200 tK for signboard</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D19" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>tep=5 pen=12</t>
         </r>
       </text>
     </comment>
@@ -807,7 +821,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="47">
+  <fonts count="48">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1109,6 +1123,13 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="44">
@@ -6197,9 +6218,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X320"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R43" sqref="R43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -6885,7 +6906,9 @@
       <c r="C19" s="121">
         <v>460</v>
       </c>
-      <c r="D19" s="129"/>
+      <c r="D19" s="129">
+        <v>285</v>
+      </c>
       <c r="E19" s="129"/>
       <c r="F19" s="129"/>
       <c r="G19" s="129">
@@ -6908,7 +6931,7 @@
       <c r="P19" s="131"/>
       <c r="Q19" s="125">
         <f t="shared" si="0"/>
-        <v>1540</v>
+        <v>1825</v>
       </c>
       <c r="R19" s="126"/>
       <c r="S19" s="7"/>
@@ -7347,7 +7370,7 @@
       </c>
       <c r="D37" s="147">
         <f t="shared" si="1"/>
-        <v>920</v>
+        <v>1205</v>
       </c>
       <c r="E37" s="147">
         <f t="shared" si="1"/>
@@ -7399,7 +7422,7 @@
       </c>
       <c r="Q37" s="149">
         <f>SUM(Q6:Q36)</f>
-        <v>27915</v>
+        <v>28200</v>
       </c>
       <c r="S37" s="334" t="s">
         <v>69</v>
@@ -9405,6 +9428,9 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
     <mergeCell ref="A1:Q1"/>
@@ -9421,9 +9447,6 @@
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.39370078740157483" bottom="0" header="0" footer="0"/>
@@ -9437,7 +9460,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CS1357"/>
   <sheetViews>
-    <sheetView topLeftCell="A103" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView topLeftCell="A91" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="D121" sqref="D121"/>
     </sheetView>
   </sheetViews>
@@ -32699,7 +32722,7 @@
   </sheetPr>
   <dimension ref="A1:AC223"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
